--- a/sbs/user_oriented_ru/openai_davinci_003_openai_davinci_002.xlsx
+++ b/sbs/user_oriented_ru/openai_davinci_003_openai_davinci_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/user_oriented_ru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D649193-6A55-544B-8095-C8A0D2F57C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593AEF49-BFD6-D24D-8DBE-E8BA93DE611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3762,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D152"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4719,1349 +4719,1445 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="380" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="320" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="320" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="395" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="E152" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
